--- a/Информация о проходах/Долматова Татьяна Анатольевна.xlsx
+++ b/Информация о проходах/Долматова Татьяна Анатольевна.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6 +453,102 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Долматова Татьяна Анатольевна</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ведущий специалист по контролю качества</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-06-04 17:11:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Долматова Татьяна Анатольевна</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ведущий специалист по контролю качества</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-06-12 07:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Долматова Татьяна Анатольевна</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ведущий специалист по контролю качества</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-06-12 13:58:23</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
